--- a/Cafe Company Comparison.xlsx
+++ b/Cafe Company Comparison.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmina\Google ドライブ\カフェ業界\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC756FD0-B19B-42F9-8D29-922983A2BC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC7F117-F1AB-4851-B739-FAEBE756F5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="テキスト比較" sheetId="1" r:id="rId1"/>
+    <sheet name="定量比較" sheetId="3" r:id="rId2"/>
+    <sheet name="元データ" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="203">
   <si>
     <t>情報ソース</t>
     <rPh sb="0" eb="2">
@@ -1462,6 +1462,85 @@
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>スターバックスは、最も高級な全粒粉コーヒーやコーヒー飲料を販売することを約束します。コーヒーの厳格な基準を遵守するために、我々は一般的に、コーヒーの購入、焙煎、包装の実質的な管理と、当社の業務で使用されるコーヒーの世界的な流通を行っています。ネスレは、スターバックスのパッケージ入りコーヒー製品のグローバルコーヒーアライアンスによる店舗外への流通を管理し、場合によっては焙煎やこれらの製品も管理します。世界各地のコーヒー生産地域からグリーンコーヒー豆を購入し、多くのブレンドとシングルオリジンコーヒーをカスタム焙煎して、正確な基準にしています。コーヒーの価格は、大きな変動にさらされています。商品市場ではほとんどのコーヒーが取引されているが、スターバックスが求める品質の高地アラビカコーヒーは、「C」コーヒー商品価格を上回るプレミアムで交渉による取引を行う傾向がある。プレミアムと商品価格は、いずれも購入時の需給に依存する。供給と価格は、生産国における複数の要因によって影響を受ける可能性がある。例えば、コーヒー生産チェーン全体における天候、水の供給品質と利用可能性、自然災害、作物病害虫、農場投入量の一般的な増加と生産コスト、在庫レベル、政治・経済状況などである。気候変動は、これらの要因の多くをさらに悪化させる可能性がある。また、価格は、ヘッジファンドやコモディティインデックスファンドなど、アラビカコーヒー先物市場の取引活動にも影響されます。さらに、コーヒーの価格は、過去に特定の組織や団体が、輸出割当を定める契約やコーヒーの供給制限を通じて、歴史的にコーヒーの価格に影響を与えようとしてきた行動によって影響を受け、将来的に影響を受ける可能性がある。市場の状況に応じて、固定価格と固定価格の購入コミットメントを用いて、高品質のグリーンコーヒーを十分に供給するためにコーヒーを購入する。また、先渡契約、先物契約、カラーを利用して、価格対固定のグリーンコーヒー契約や、価格対固定の基礎となる固定価格契約や価格対固定契約がまだない長期予測コーヒー需要の下での「C」価格エクスポージャーをヘッジしています。購入コミットメントの合計は、既存の在庫とともに、2024年度までのグリーンコーヒーの十分な供給を提供することが期待される。グリーンコーヒーの供給については、コーヒーメーカー、社外取引会社、輸出業者との関係に依存する。我々は、サプライヤーとの関係から、このような購入コミットメントが未提供になるリスクは低いと考えている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直営店
+2023年度の純収益のうち、会社運営の店舗からの収益が82%を占めている。当社の小売目的は、コーヒー、紅茶、関連商品の最高品質の販売、補完的な食品提供、および各顧客に独自のスターバックス体験を提供することにより、各ターゲット市場におけるコーヒーと紅茶のリーディング小売業者およびブランドとなることである。スターバックスエクスペリエンスは、優れた顧客サービス、利便性、シームレスなデジタル体験、そして安全でクリーン、かつ維持された店舗をベースに、コミュニティの個性を反映し、高い顧客ロイヤリティを構築しています。スターバックスが世界で最も認知され、尊敬されるブランドの一つであることを維持するという長期的な戦略目標をサポートするために、新規市場や既存市場に選択的に追加店舗を開設し、既存店舗の売上を増やすことで、グローバルな小売事業を拡大する戦略を規律正しくカテゴリーシェアを拡大することである。特定の既存市場における店舗の成長は、期待される財務的リターン、市場の成熟度、経済状況、消費者行動、地域のビジネス環境など、多くの要因によって変化する。スターバックスの会社運営店舗は、通常、交通量の多い、視認性の高い場所に所在しています。店舗の規模や形式を変化させることができるため、繁華街や郊外の小売センター、オフィスビル、大学キャンパス、地方や高速道路の敷地など、さまざまな場所やその近くで店舗を配置することができます。私たちは、より高度なアクセスと利便性を提供するドライブスルー形式と、密集した都市圏でより合理的な顧客体験を提供するために設計された代替店舗形式など、店舗の拡大を継続しています。2022年度、私たちは米国で計画を打ち出しました。市場は、パートナーや顧客体験を高めながら効率を上げることができる(「再発明計画」)。我々は、パートナーの賃金とトレーニングに対する会社運営の市場投資は、以下のような特徴があると信じている。また、専用の店舗コンセプトや技術革新の加速により、お客様との利便性やつながりが向上しています。また、主要な国際市場において、利便性を高め、顧客体験を向上させるために、テクノロジーへの投資と、関連する専門知識を持つ第三者とのパートナーシップを確立し続けています。さらに、ビジネスが進化するにつれ、オンライン、eコマース、デリバリー、モバイル注文、店頭での体験の成長を通じて、より多様な顧客層に対応するために、オムニチャネルビジネスを構築し、より多くの機会を実現しています。中国では、スターバックス・ナウTM店舗などのプラットフォームを活用し、物理的・デジタル的な顧客接点のシームレスな統合を可能にしています。注文は、スターバックスモバイルアプリまたはスターバックスデリバリーTMを通じて事前に行うことができ、これらの明示的な小売フォーマットの場所で顧客とデリバリープロバイダーが便利にピックアップすることができます。これらの戦略は、より高いレベルのモバイル注文、より多くの非接触ピックアップ体験、店舗での混雑の減少など、急速に進化する顧客の好みと密接に整合しています。デジタルサードプレイスへの投資により、会員は新たなメリット、デジタルコミュニティ、没入型コーヒー体験にアクセスし、お客様にスターバックスを体験して接続するための新しい方法を提供します。私たちは、店舗のポートフォリオを変革し、テクノロジーを向上させるための継続的な努力が、顧客体験を向上させ、スターバックスを長期的な成長のために位置づけると信じています。
+ストアドバリューカードとロイヤリティプログラム
+スターバックスカードは、後述するスターバックス®リワードのロイヤリティプログラムを通じて、便利な支払い方法、ギフトのサポート、カード所有者による店舗訪問頻度の増加などを顧客に提供することを目的としたプログラムです。ストアドバリューカードは、最初に口座残高をロードしたときに、お客様に発行されます。北米、中国、日本、その他多くの国際セグメントの多くの市場において、自社運営の最もライセンスを活用した店舗で入手することができます。ストアドバリューカードは、スターバックス®モバイルアプリやその他の米国でも入手可能です。と国際的な小売業者との間で取引を行うことができます。顧客は、参加する店舗で保管されているバリューカードやスターバックスモバイルアプリを活用することで、カード残高にアクセスすることができる。米国を含むほぼすべての市場においてとカナダでは、スターバックスカードを登録する顧客は、自動的にスターバックスリワードプログラムに登録されます。登録されたメンバーは、獲得した報酬ポイントの数(「スター」)などの要素によって、様々な特典を受けることができます。スターバックスカードの使用に加えて、スターバックスリワードのメンバーは、北米のすべての会社運営店舗と大多数の認可店舗で、現金、クレジット、デビットカード、または選択したモバイルウォレットで支払うことによってスターを獲得することができます。スターバックスモバイルアプリのモバイルオーダーとペイ機能を使って、顧客は複数の市場の特定の参加拠点でピックアップのための注文を事前に行うこともできます。注1、当社の保管価額カードおよびロイヤルティプログラムの詳細については、本10-KのパートIIの第8項目に含まれる重要な会計方針および見積もりの概要をご参照ください。
+ライセンスストア
+当社のライセンスストアからの収益は、2023年度の純収益全体の13%を占めています。ライセンスストアは、一般的に企業運営の店舗よりも粗利益率が低く、営業利益率も高い。ライセンスモデルでは、スターバックスはブランド商品のマージンを獲得し、ライセンスストア運営者に販売される物資と、小売売上に対するロイヤリティを受け取ります。ライセンス契約者は、営業費用と資本投資に責任を持ち、ライセンスされたストアモデルの下で受け取る収益の減少を補って余りあるものです。当社のライセンスショップでは、現地パートナーの専門知識を活用し、当社のオペレーションと店舗開発の経験を共有することを目的としています。ライセンシーは、望ましい小売スペースへのアクセスを改善し、時には唯一の手段を提供する。ライセンシーの多くは、市場に関する深い知識とアクセスを持つ著名な小売業者である。これらの取り決めの一環として、コーヒー、紅茶、食品および関連製品をライセンシーに販売し、顧客に再販し、ライセンシーからロイヤリティおよびライセンス料を受け取ります。また、コーヒー醸造機やエスプレッソマシンなどの特定の機器をライセンシーに販売し、業務に使用することができます。ライセンスリテールで働くライセンシーの従業員は、当社の詳細な店舗運営手順に従い、会社運営の店舗の従業員に与えられるものと同様のトレーニングクラスに参加することが求められています。限られた国際市場においても、伝統的なフランチャイズを利用し、他の認可された店舗の業務結果にもこれらの店舗を含めています。</t>
+    <rPh sb="0" eb="3">
+      <t>チョクエイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私たちは、製品の品質、常にポジティブな消費者体験の提供、そしてグローバルな社会的・環境的インパクト・プログラムに対して、世界的に優れた評価を得 ていたと考えています。スターバックスブランドは、世界各地で認知されており、グローバルなブランド価値調査において高い評価を受けています。今後、特 に米国外で成功するためには。スターバックスブランドと他のブランドがあまり知られていない場合、私たちはすべての販売チャネルにわたって、ブランドの 価値を維持し、成長させ、活用しなければならないと考えています。ブランド価値は、様々な主観的資質に対する消費者の認識に部分的に基づい ている。ブランド価値に対する信頼の低下は、私たちまたはビジネスパートナーの両方から発生する孤立した、または繰り返される出来事、または外部からの事象によって引 き起こされる可能性があります。このような事件は、当社の店舗のボイコットを引き起こしたり、民事または刑事責任を負う可能性があり、当社の業績に悪影響を及 ぼす可能性があります。ブランド価値に対する信頼を損なう可能性のあるインシデントとしては、プライバシーの侵害や国内・国際プライバシー法違反の実 由・認 識、汚染された食品、製品回収、伝染病に感染した従業員やその他のフードハンドラーの保管、安全関連事件、その他この危険因子の項で取り上げる潜在的なインシ デントなどが挙げられます。このような事件は、社会的・デジタル的なメディアを速やかに通じた大幅な宣伝(悪意のある理由を含む)を受けたり、訴訟に発展したり すると、その影響がさらに大きくなる可能性があります。当社、従業員、ライセンシー、その他のビジネスパートナーが当社の製品の品質を維持できず、非倫理的、 違法、人種的偏見、不平等、不公平、社会的無責任な方法で行動または行動していると認識されている場合、当社の製品に対する消費者の要求とブランド価値は著し く低下する可能性があります。当社の製品の調達、コンテンツまたは販売、スターバックスストアでの顧客のサービスおよび処理、従業員の処理(組合設立への対応 を含む)に関して、当社の製品の調達、コンテンツまたは販売、スターバックスストアでの顧客のサービスおよび処理、従業員の処理に関するものを含む。ts、また は一般的な、または直接マーケティングやその他の目的のための顧客データの使用。さらに、もし私たちが社会的・環境的プログラムの目標に向けて十分な進捗を図 ったり、再発明プランを実行するのに効果的でないなら、私たちのブランドに対する消費者の信頼が損なわれる可能性があり、この認識は否定的な宣伝や訴訟につな がる可能性があります。さらに、法律や規制に従わない場合、議論を呼ぶ立場や行動をとったり、ブランドをうまく代表する従業員を引き付け、維持するための賃金 や給付金の適切なバランスへの投資や、包括的で多様な環境を醸成するための投資を行わなかったりすると、ブランド価値が低下する可能性があります。私たちのブランドの継続的な関連性は、私たちの社会的・環境的プログラムの目標に向けた十分な進展と、再発明計画の成功に依存するかもしれません。私たちは、気候変動の影響やエネルギー・水資源の減少など、私たち、ライセンシー、サプライチェーンのリスクとコストを管理するために取り組んでいます。これらのリスクには、政府による集中力の向上も含まれます。また、包装や廃棄物、動物の健康や福祉、森林伐採、土地利用など、環境に配慮した持続可能な問題についても、政府機関や非政府組織が関与しています。これらのリスクには、コミットメントや目標設定、それを達成するための行動への圧力が高まることもあり、市場、運用、実行のコストやリスクにさらされる可能性があります。第三者の中には、私たちの社会的・環境的プログラムの取り組みや目標の範囲や性質、あるいはこれらの取り組みや目標の修正に異議を唱え、政府の関係者(報復的な立法処置など)や消費者(ボイコットやネガティブな宣伝キャンペーンなど)が否定的な反応を起こし、ブランド価値に悪影響を及ぼす可能性がある者もいる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーケティング、プロモーション、広告プラン、価格戦略</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私たちの継続的な成功は、変化する経済・競争環境や進化する顧客の嗜好に迅速かつ効果的に対応するために、マーケティング、プロモーション、広告プラン、価格戦略を調整する能力にかかっています。私たちは、複雑でコストのかかるマーケティング、プロモーション、広告の環境で活動しています。質の高いマーケティングパートナーやエンドーサーを惹きつけ、維持するための競争が激化している。私たちが、特定のエンドーサーやマーケティングパートナーとの協働や、行動や発言に照らしての協働をやめようとすると、消費者とのブランドイメージに深刻な悪影響を与え、その結果、販売や財務状態に悪影響を及ぼす可能性があります。私たちのマーケティング、プロモーション、広告プログラムは、消費者に私たちの意図する方法でリーチすることに成功しないかもしれません。デジタルを含むさまざまなチャネルで広告、宣伝、マーケティングリソースを配分することで、消費者に効果的かつ効率的に、そして消費者にとって意味のある方法でリーチできるかどうかに、私たちの成功は部分的にかかっています。広告、プロモーション、マーケティングプログラム、あるいは価格戦略が成功しなかったり、競合他社ほど成功しなかったりすると、売上や市場シェアが減少する可能性があります。最後に、消費者は持続可能性とオペレーションの環境への影響、および、ミッション、価値観、約束の整合性に重点を置いています。これらの課題に関して消費者の期待に応えられないことは、悪影響を及ぼす可能性がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不衛生な水の供給や、食品や飲料を中心とした病気、改ざん、汚泥、汚染、誤表示など、食品や飲料を中心とした病気、製造、包装、保管、調理などの食品安全性の問題が事実かどうかにかかわらず、過去に食品・飲料加工、食料品、クイックサービスレストラン部門の企業の評判を著しく悪化させたとのことです。このような事態に私たちを結びつけるいかなる報告も、当社の売上を著しく損ない、製品責任の請求、訴訟(授業を含む)、一時的な店舗閉鎖、その他の悪影響を及ぼす可能性があります。クリーンウォーターは、コーヒー、紅茶、その他の飲料の調製、および冷蔵飲料の氷に不可欠であり、特に国際的な場所では、クリーンウォーターと氷の供給が十分に確保できない場合があります。また、冷凍や冷凍を必要とする製品も引き続き追加しており、機械的な故障やヒューマンエラーにより正しい温度が維持されない場合、食品安全関連事故のリスクが高まります。また、第三者の食品供給会社に依存して、原料や完成品を店舗に提供・輸送することで、リスクにも直面しています。製品品質やサービスが低下することは、当社の管理範囲を超えて、何度でもご確認いただけますので、本製品の汚染やその他の不具合を検出することは困難です。監視を行わない人、または監視を行わない人の方がリスクが高い。さらに、COVID-19のパンデミックに端を発し、より厳しい健康規制とガイドラインがあり、食品安全基準と管理に対する国民の関心が高まっている。食料安全保障上の潜在的な事故は、店舗であれ、ビジネスパートナーであれ、幅広い社会的接触をもたらし、当社のビジネスに重大な損害を与える可能性があります。さらに、食品や飲料の安全性に関する問題の事例は、競合他社やサプライヤーや販売業者のレストランや店舗のみを対象とするものであっても(それらのサプライヤーや販売業者を利用しているか利用したかにかかわらず)、当社や食品サービス業界全般に対して否定的な宣伝を行うことになり、地域や世界的に販売に悪影響を及ぼす可能性があります。食品安全に関する懸念や否定的な宣伝、あるいは当社の店舗が一時的に閉鎖された結果、製品回収、バイラル汚染食品・飲料クレーム、その他の食品・飲料安全に関するクレームや訴訟の結果として顧客のトラフィックが減少すると、当社の事業や業務の結果に重大な損害を与える可能性があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費者の嗜好の変化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私たちの継続的な成功は、顧客を引き付け、維持する能力にかかっています。私たちの財務結果は、消費者支出が家庭外からの食品・飲料からシフトする こと(学生のローン支払い再開による裁量的支出の削減など)、新製品に対する顧客の受け入れの欠如(新製品のコストをカバーするために必要な価格上昇 や投入コストの上昇など)、ブランド(スターバックスブランドの世界的拡大など)、プラットフォーム(モバイル技術の特徴、原資産の変化など)により悪 影響を受ける可能性があります。r ロイヤルティ報酬制度と当社の配送サービスイニシアチブ)、または新製品が導入される際に顧客が当社の現在の製品 に対する需要を減少させる。さらに、私たちの製品の中にはカフェイン、乳製品、砂糖、その他の化合物やアレルゲンを含むものがあり、その健康影響は 、様々な健康への悪影響との関連性を示唆するなど、公的・規制的に精査された対象になっています。特に米国では、肥満を含む健康リスクに対する消費 者の認識が高まっており、また、様々な食品・飲料製品の消費による健康への悪影響の疑いに基づく消費者訴訟も増加している。当社の製品に存在するカ フェインやその他の化合物の健康への影響について、正確かどうかにかかわらず、特定の種類の食品および飲料成分に対する追加課税、または特定の健康 リスクから生じる否定的な宣伝または訴訟に関する好ましくない報告は、当社の飲料および食品の需要を著しく減少させ、当社の事業および業務の結果に 重大な損害を与える可能性があります。当社の業績は、国内外の特定の市場における不動産コストの増加、インフレ圧力と実勢金利の変化、サプライチェ ーンの混乱、税制に対する政府の規則とアプローチの変更、外貨為替レートの変動など、マクロ経済状況の変化によって悪影響を受け、今後も影響を受け 続ける可能性がある。このような変化は、消費者の行動や、当社の製品に裁量的な収入を費やす能力や意欲に影響を与える可能性があります。さらに、我 々の財務結果は、顧客ルーチンの混乱、雇用主の「在宅勤務」方針の変更、消費者行動の変化、当社の製品に裁量収入を費やす能力または意欲など、COVI D-19パンデミックの影響が持続することによって悪影響を受け、今後も影響を受け続ける可能性がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当社の業績は、2023年度の連結純収益の約74%を占める当社の北米事業セグメントに大きく依存しています。北米事業セグメントの収益動向が減速または低下した場合、特に米国では、その傾向が顕著です。の場合、他のセグメントは大きな不足を補うことができず、ビジネスや財務の結果に悪影響を与える可能性があります。また、北米のセグメントは比較的成熟しており、営業キャッシュフローの大部分を生産しているため、このような減速や減少は、国際ビジネスの拡大やその他のイニシアチブへの資金提供、株主への現金還元のためのキャッシュフローの減少につながる可能性があります。将来の成長は、特定の国際市場の成長と持続的な収益性にますます依存するようになっている。国際市場の一部または全部の事業部門(以下「MBU」) は、当社が一般的に事業を行っている国によって定義されているが、事業の成功や期待成長の達成には至っておらず、最終的には安定した純収益と 利益を安定的に達成する必要がある場合がある。これらの国際事業のパフォーマンスは、当社の大手MBUが活動する国の1カ国以上における景気後退 の悪影響を受ける可能性があります。国際的な大手 MBU のパフォーマンスが低下した場合、連結業績に重大な悪影響を及ぼす可能性があります。インターナショナル・セグメントは、北米のセグメントとともに、グローバル・リターンを牽引する重要な利益源である。特に、当社の中国MBUは、連結収益と国際純収益および営業利益の両方に有意に寄与しています。中国は、成長率、全体として2番目に大きな市場、100%の会社所有率という点で、最も急速に成長している市場であると予想されます。当社の利益と成長に対する当社の中国市場の重要性から、当社は中国において、他で述べたリスクや以下を含むリスクにさらされています。さらに、国際事業の成功に不可欠な要素として、米国に影響を与える要素とは異なるものがあります。店舗やライセンシー。味は地域によって当然異なるが、一部のMBUの消費者は、米国の消費者と同程度には、我々の製品を受け入れないかもしれない。やその他の国際市場において。営業費用および店舗運営費用は、米国よりも国際的に高くなる可能性があります。これは、プライムストアの店舗に対する賃料が高いことや、国別の規制要件を遵守するためのコストがかかることが原因である。国際事業の多くは開発の初期段階にあるため、関連する収益に占める運営費の割合は、より開発された事業に比べて高くなることが多い。世界の86の市場で事業を展開しています。また、海外事業を行う際には、以下のような固有のリスクも伴います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規店舗、ブランド製品、その他のイニシアチブの計画を含むグローバルなビジネス戦略は、ライセンシーやジョイントベンチャー関係、サードパーティメーカー、販売代理店、小売業者など、さまざまなビジネスパートナーに大きく依存しており、特にグローバルなチャネル開発ビジネス全体において、その重要性が増しています。ライセンシー、小売業者、フードサービス事業者は、当社のロゴを使用し、ブランドの食品、飲料、その他の製品を直接お客様に提供することが許可されています。当社は、お客様がライセンスや会社運営の店舗を訪問するかにかかわらず、同じサービス品質を期待できると考えていますので、これらのライセンシーやその他のビジネスパートナーに対して、トレーニングやサポートを提供し、業務を監視しています。しかし、彼らが提供する製品の品質とサービスは、財政的制約や支払能力、衛生プロトコルやガイダンスの遵守、労働力不足など、我々の管理範囲を超えたあらゆる要因によって低下する可能性がある。当社は、ビジネスパートナーを直接コントロールしておらず、そのプラクティスを可視化できていない可能性があります。また、当社の食品、飲料、その他の製品は、国内外のさまざまなビジネスパートナーから調達しており、場合によっては当社のライセンシーが直接製造または調達しています。当社が当社のロゴの使用を許可し、当社のフードサービス事業の一部としてブランド製品を提供するフードサービス事業者が提供する非Starbucks製品の品質は監視していません。さらに、ブランドとその他の知的財産の利用が一貫していないことや、知的財産の保護ができないことは、消費者の信頼やブランド価値を損ない、財務結果に重大な悪影響を及ぼす可能性があります。
+当社の事業の成長は、ライセンシーパートナーが当社の成長プラットフォームや製品イノベーションを実施する能力、および当社がそのような契約に基づく商業およびその他の契約、ならびに当社のビジネスパートナーのパフォーマンスについて適切な条件を締結、維持、開発、交渉できる程度に依存しています。当社の国際ライセンシーは、資本の制約やその他の要因に直面する可能性があり、特定の市場で拡大・発展するスピードを制限する可能性があります。当社のチャネル開発事業は、一部の例外を除き、パッケージングされた商品およびフードサービス製品を小売業者および事業者に販売・販売する権利を有するネスレに大きく依存しています。ネスレが当社の契約に基づいて販売およびマーケティングのコミットメントを履行せず、/またはチャネル開発における当社のブランドの保護および成長を怠った場合、当社のチャネル開発事業は一定期間にわたって悪影響を受け、当社のブランドに長期的な課題を提示し、当社のチャネル開発事業の成長能力を制限し、当社の事業および財務結果に重大な悪影響を及ぼす可能性があります。さらに、当社のチャネル開発事業の成長は、小売およびライセンスされた店舗事業が提供する裁量的支援のレベルに依存する部分があります。一般に、特定の市場で活動するライセンシー・パートナーは比較的少数である。十分な資金や資金にアクセスできない場合、事業を成功させ、成長させることができない、あるいは望めない場合、該当する市場での我々の結果に重大な悪影響を与える可能性がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒー豆などの商品の入手可能性や価格には大きな変動があります。当社は高品質のホールビーンであるアラビカコーヒー豆および関連コーヒー製品を購入、焙煎、販売しています。私たちが求める高品質のアラビカコーヒーは、「C」価格よりも高いプレミアムで交渉ベースで取引される傾向があります。このプレミアムは、購入時の需給に依存し、プレミアムの額は大きく変動する可能性があります。C」コーヒーの商品価格の上昇は、高品質のアラビカコーヒーの価格を上昇させ、また、固定価格での購入コミットメントを行う能力にも影響を与えます。私たちは、品質、数量、納期、その他の交渉による条件が合意されたが、コーヒーの基本価格構成要素である「C」が固定される日付、したがって価格がまだ確立されていない供給契約を頻繁に締結している。購入するコーヒーの供給と価格は、生産国における複数の要因によっても影響を受ける。例えば、コーヒー生産チェーン全体における天候、水の供給品質と供給可能性、自然災害、作物病害虫、農場投入量と生産コストの一般的な増加、在庫レベル、政治・経済状況、歴史的にグリーンコーヒーの価格に影響を与えようとした特定の組織や団体の行動などである。輸出割当量を減らすか、コーヒーの供給を制限することで、コーヒーの生産量を制限する。気候変動は、これらの要因の多くをさらに悪化させる可能性がある。コーヒー商品の投機的取引もコーヒー価格に影響を与える可能性がある。例えば、ブラジルの干ばつや霜のような異常気象は、過去にコーヒー価格に影響を与え、そのような気象条件が将来再発する可能性の高いケースでは、コーヒー価格の変動に同様の影響を与えるだろう。コーヒー豆は、購買活動やヘッジ活動を通じて将来の価格リスクを部分的にしか軽減できないため、高品質のアラビカコーヒー豆のコストアップは、収益性に重大な悪影響を与える可能性があります。また、上記のような要因や世界的・地域的な不足により、十分な量の緑コーヒーを購入できない場合、コーヒーの需要を満たすことができず、事業運営や業績に重大な悪影響を与える可能性があります。また、自社運営の小売店のニーズに応えるため、特に流動牛乳などの乳製品や、オーツミルクやアーモンドミルクなどの植物由来の乳製品フリー代替品も相当量購入しています。さらに、紅茶やココア、青菜、ベーキング成分、肉類、卵、エネルギーなど、食品・飲料の投入に関連する商品、およびこれらの投入物の処理など、他の商品も、我々の事業にとって重要である。特に国際市場において、供給不足、加工の遅れや中断、その他による場合、乳製品やその他の商品のコストの増加、または入手の悪さは、当社の収益性に重大な悪影響を与える可能性があります。同様に、供給不足、遅延、工場ベースの代替品の処理の中断などによるコストの増加や入手の不備も、当社の収益性に重大な悪影響を与える可能性があります。
+ローストコーヒーの供給が、弊社の焙煎工場の死傷者による物質的な中断、当社の流通経路内で商品を出荷する第三者物流サービスプロバイダーやコモンキャリアーによるサービスの中断、関税や割当の引き上げ、禁輸措置や関税の制限などの貿易制限、パンデミック、社会・労働不安、労働不足、自然災害や政治紛争、軍事紛争など、当社のサプライチェーンにおける物質的中断は、当社のサプライチェーンにおける物質的中断とみなされます。サプライチェーンで物質的な混乱を利用することは、当社のビジネスと収益性にマイナスの影響を与える可能性があります。さらに、当社の食品、飲料、その他の製品は、サプライチェーン業務において国内外のさまざまなビジネスパートナーから調達されており、場合によっては当社のライセンシーが直接生産または調達している場合もあります。我々は、高品質の製品を提供し、適用される法律を遵守するために、これらのサプライヤーに依存する。当社の基準を満たし、タイムリーかつ効率的に製品を供給する適格なサプライヤーを見つける能力は、特に米国外からの調達品に関して、新鮮な食品と調理済み食品を増やす上で重要な課題である。また、インフラが整備されていない国や地域、発展途上国や破綻した国、政治的な不安や社会不安を抱えている地域から、政治的な不安を和らげることができる。製品によっては、1社やごく少数のサプライヤーに頼っている場合があります。サプライヤーが当社の基準を満たさない、適時かつ効率的に製品を提供することができない、または適用される法律を遵守していないことは、当社の管理範囲外である。これらの問題は、当社の事業や収益性に重大な悪影響を及ぼす可能性があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当社は、賃金や給付金などの労働コストの増加により悪影響を受ける可能性があります。このコストは、当社のような小売事業において、国内外で最も重要なコストであり、州や連邦政府の法律や賃金、スケジュール、給付金に関する規制措置によって引き起こされる増加、医療保険や労働者補償保険のコストの増加、高品質なeを引き寄せ維持するために必要なその他の給付金の賃金やコストの増加などが含まれます。適切なスキルセットを持つ人材。当社の事業の成長により、十分な数の従業員の配置や雇用、世界的に分散した企業の内部統制の効果的なシステムを維持すること、そして世界中の従業員を訓練することがますます困難になり、一貫して高品質の製品や顧客体験を提供し、当社の事業や業務の成果に重大な損害を与える可能性があります。さらに、私たちはこれまで、店舗での勤務不足を経験し、今後も経験する可能性があり、他の雇用主による代替的な在宅勤務の雇用オプションの利用可能性が高まれば、主要な機能に対して利用できる有能な人材のプールが減少する可能性があります。さらに、賃金や福利厚生プログラムは、優秀な人材を惹きつけ、維持するには不十分な場合がある。2021年9月より、多くの企業運営店舗のスターバックスパートナーは、実施された当局の選挙を通じて組合の代表者を求めていた。EUはこれらのストアの多くで表象権を確保しており、今後さらに発展する可能性がある。法律では、組合に代表される従業員に関して行われる一方的な行動に制限を設けています。なぜなら、特定の場合には、雇用主は、他の雇用条件に影響を与える可能性のある特定の業務上の変更を行う前に、組合に通知し、交渉する必要があるからです。これらの制限は、当社のコストに悪影響を与え、従業員の文化を変化させ、また、変化するビジネスニーズに適応するために業務上の変更を完全に実施する能力に影響を与えることにより、当社の現在の業務モデルを破壊する可能性を提示する可能性があります。さらに、いくつかの会社運営の店舗で、仕事上のアクションを経験しています。このような業務上の行動や作業停止は、当社の業務、当社が製品の納入に依存する第三者プロバイダー、当社の売上、および当社のコストに悪影響を与える可能性があります。さらに、組合やパートナーの組合結成に関する当社の立場は、当社のブランドの認知度にマイナスの影響を与え、当社の業績にも悪影響を及ぼす可能性があります。これらのポジションはまた、私たちに法的なリスクをさらし、法的な行動や規制上の措置、潜在的な罰則や制限、風評被害を守るためのコストを負担させる可能性があります。
+今後の成功の多くは、主要な人材や従業員の継続的な利用可能性とサービスにかかっています。経営幹部やその他の重要な上級管理職の喪失は、当社の事業に害を及ぼす可能性があります。また、この成功は、顧客に優れた店舗での体験を提供し、ブランドを向上させることに依存する小売店の従業員の貢献と能力にも大きく依存しています。したがって、当社の業績は、国内外を問わず、当社の店舗で働き、管理するために、質の高い管理職やその他の従業員を採用し、維持する能力にかかっています。我々のその能力は、労働市場における課題によって影響を受け、今後も影響を受ける可能性があり、賃金のインフレ、労働力不足、従業員の離職率の上昇、労働力の利用可能性の変化、リモートワークやハイブリッドワークの取り決めへの移行を経験し、継続する可能性がある。企業、小売、その他の人材を惹きつけ、維持する能力は、競争が比較的少ない比較的少数の有能な従業員が集中している特定の国際市場や国内市場、あるいは大手ハイテク企業がより競争力のある給与や利益を提供できる市場においても、深刻な影響を受けています。さらに、当社の成長イニシアチブのために、お客様とのデジタルリレーションシップの向上を含め、新技術の開発・導入に必要な資格のあるテクノロジーシステム開発者向けの激しい競争が存在します。もし、従業員を採用し、維持し、モチベーションを高め、現在のビジネスを維持し、予測される成長をサポートすることができなければ、ビジネスと財務パフォーマンスに悪影響を与える可能性があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペシャルティコーヒー市場は、製品の品質、革新性、サービス、配送サービスや携帯電話注文などの利便性、価格など、激しい競争力を持ち、それぞれのチャネルや市場において、これらすべての分野で大きな競争力を持ち、また増加している。したがって、すべてのチャネルと市場においてリーダーシップのポジションを持つわけではありません。米国では、クイックサービスレストランの大規模競合他社が高品質のスペシャルティコーヒー飲料の販売に注力し続けることで、スターバックス®店への顧客トラフィックが減少し、/取引あたりの平均値が当社の販売や営業結果に悪影響を及ぼす可能性があります。同様に、国内および国際市場において、確立された競合他社との継続的な競争、または大規模な新規参入企業や資金力のある小規模企業との競争は、成長を妨げ、それらの市場における当社の売上や事業の成果に悪影響を及ぼす可能性があります。また、多くの小規模な競合他社が世界中の多くの市場でコーヒー専門店を開設し続けており、これらを総合すると、それらの市場における当社の店舗への顧客トラフィックが大幅に減少する可能性もあります。包装されたコーヒー・紅茶や単剤・医薬品のコーヒー飲料市場において、新規参入者や大口参入者を含めて世界的に競争が激化しており、チャネル開発セグメントの収益性に悪影響を及ぼす可能性がある。さらに、すべての競合他社が当社と同等のレベルで環境または持続可能性の目標を達成しようとするわけではなく、その結果、当社の競合他社はサプライチェーンや運営コストを低く抑えることができるかもしれません。当社は、二酸化炭素およびその他の温室効果ガス排出量の削減、プラスチックの使用削減、または当社のサプライヤーに対する履行義務の課金に関連するコストの増加を生じ、当社および当社のビジネスパートナーに対する経済的義務を増加させ、当社の収益性に影響を与える可能性があります。さらに、消費者の健康的な飲料や食品に対する需要に対応できない場合や、競合他社がより効果的に反応する場合には、当社の事業にマイナスの影響を与える可能性があります。さらに、他の製品に対する消費者の嗜好、製品に対する需要の平坦化、店舗での顧客の日常生活や交通の変化、厳しい経済状況による顧客の支出行動の変化など、あらゆる理由でスペシャルティコーヒー製品に対する一般消費者の需要が低下することは、当社のビジネスにマイナスの影響を与える可能性があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私たちは、ビジネスが行われる場所には、固有の気候変動リスクがあることを認識しています。例えば、前述したように、私たちが購入するコーヒーの供給と価格は、天候や水の供給品質、入手可能性など、生産国における複数の要因によっても影響を受ける可能性があり、その要因は気候変動によって引き起こされたり、悪化したりする可能性があります。気候変動は、製品の入手可能性の低下、価格設定の不利、その他非コーヒーの投入に悪影響を及ぼす可能性もあります。特に、気候変動は、当社が事業を展開し、事業を期待する市場やサプライチェーンの他の場所での水の利用可能性に影響を与え、当社の事業に悪影響を与える可能性があります。世界の86の市場で事業を展開しています。私たちの財産や事業は、異常気象や山火事、干ばつなどの自然周期の頻度や深刻さを増加させると予測される気候変動の悪影響に対して脆弱である可能性があります。このような事象は、当社の事業を破壊し、店舗閉鎖を引き起こし、第三者サプライヤーの事業を破壊し、当社の顧客に影響を与え、これらすべてが当社が事業を維持または再開するための損失と追加コストを被る可能性があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複雑な地方、州、国、外国、国際的な法律や規制は、個人データの収集、使用、保持、保護、開示、移転、その他の処理に適用されます。これらのプライバシーとデータ保護に関する法律と規制は急速に発展しており、新しい法律と規制が頻繁に提案され、実施され、既存の法律と規制は新しい、あるいは異なる解釈と執行の対象となる。さらに、米国外の法域における当社の法的・規制上の義務も遵守するものとします。は、規制機関やその他の政府機関が新規または追加的な法律や規制を制定する可能性、事前の法律や規制を無効にする裁定を発行する可能性、または罰則を大幅に増やす可能性など、予期せぬ変更の対象となる。これらの法律や規制を遵守することはコストがかかり、新製品やサービスの開発や提供を妨げる可能性があります。例えば、欧州の一般データ保護規則(GDPR)や英国では、以下のような傾向があります。一般データ保護規則(GDPRを英国に導入したものです。の法律)、厳しいデータ保護要件を課し、コンプライアンス違反に対する大きな罰則を科す。中国では、個人情報保護法(PIPL)により、個人情報処理に関する規則、データ主題の権利、個人情報処理業者に対する義務などが定められている。中国のデータセキュリティ法であるPIPLに加え、個人および非個人のデータ処理活動も規制しています。これらの法律に従わないと、重大な民事および刑事罰が科される可能性があります。スターバックスとそのライセンシーが提供する他の司法管轄区で新たに制定・提案されたプライバシーおよびデータ保護法も、以下のような同様の要件を課す可能性がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当社は、管理機能、店舗およびオンラインにおける販売店の処理および決済、サプライチェーンの管理、スターバックスカード、オンラインビジネス、配送サービス、モバイルテクノロジー(モバイル決済および注文アプリ、リロードおよびロイヤルティ機能、その他参加ライセンシーにスターバックスデジタルソリューションを提供するなど)、ならびに多くの目的のために、業務全体にわたる情報技術システムに大きく依存しています。これらのシステムは、互いの機能に対して相互依存関係にある場合。非店舗の従業員の多くは、リモートまたはハイブリッドベースで仕事を続けており、その結果、情報技術インフラに対する需要が高まっています。さらに、顧客とのデジタルリレーションシップを強化し、トラフィックや支出を増加させる能力など、成長を促進するための私たちの取り組みの成功は、私たちのテクノロジーシステムに大きく依存しています。さらに、モバイルオーダリングの機能に大きく依存する利便性重視のフォーマットの拡張を続けています。また、これらの情報技術システムの一部とサポートについては、第三者プロバイダーとプラットフォームに依存しています。さらに、サードパーティサービスプロバイダーが提供するハードウェア、ソフトウェア、サービスは、市場内や市場全体で完全に冗長化するものではありません。当社の契約上および運用上のセーフガードは、これらのシステムまたはプラットフォームが効果的に動作し、利用可能でないことを防ぐ上で有効でない場合があります。このような障害は、停電、気候変動に関連する影響、壊滅的な出来事、身体的窃盗、コンピュータやネットワークの障害、不十分または非効率的な冗長性、アップグレードまたは交換システムまたはプラットフォームへの移行に関する問題、第三者ソフトウェアまたはサービスの欠陥、当社の従業員または第三者サービスプロバイダーによるエラーまたは不適切な使用、これらのシステムまたはプラットフォームのセキュリティにおける侵害(それらのようなサイバー攻撃を含む)など、様々な要因によって引き起こされる可能性があります。は、当社または第三者のビジネスパートナーのシステムおよびプラットフォームを閉塞させる結果となり、このリスク要因のセクションでより詳細に議論されることになります。もし、当社の事故対応、災害復旧、事業継続計画が効果的かつタイムリーにこれらの問題を解決しなければ、当社の事業が中断され、当社の製品の可用性や売上、当社の事業の効率性、財務結果に重大な悪影響を及ぼす可能性があります。さらに、当社のシステムおよび関連する顧客支援に関するあらゆる問題を改善することで、予定外の多額の費用が発生する可能性があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康上の流行やパンデミックは過去に発生しており、将来的にはマクロ経済状況、消費者行動、労働の利用可能性、サプライチェーン管理、影響を受ける市場での現地事業に影響を与える可能性があり、これらはすべて、我々のビジネス、財務結果、展望に悪影響を与える可能性があります。健康上の流行やパンデミックに対する政府の対応(業務上の制限を含む)も、上記の項目に影響を与え、当社の事業や業績に悪影響を及ぼす可能性があります。健康上の流行やパンデミックの期間や範囲を予測することは困難であり、新しい変種の出現や予防措置の利用可能性、受容性、有効性など、多くの要因に左右される。健康上の流行やパンデミックは、労働や商品の入手可能性やコスト、サプライチェーンの中断、消費者行動、消費者のブランドや産業に対する認識など、これらのリスク要因で開示される他のリスクも高める可能性があります(ただし、これらに限定されるものではありません)。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1516,11 +1595,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,6 +1616,2008 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>カフェ企業 有報記載量比較</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="filled"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>定量比較!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ドトールコーヒー</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>定量比較!$C$2:$C$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(定量比較!$C$4:$C$9,定量比較!$C$11:$C$15,定量比較!$C$17:$C$21,定量比較!$C$24:$C$25,定量比較!$C$27)</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>研究開発活動</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>サステナビリティに関する考え方及び取組</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>調達価格や為替、エネルギー価格の変動</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>生産拠点の配置・食材・商品等の供給体制</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>出店政策・店舗展開</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>店舗の賃借物件への差入保証金</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>海外における事業展開</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>経済状況の変化・景気動向と競合</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>人材の確保・育成</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>情報管理</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>大規模自然災害・新型コロナ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>減損会計の適用</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>レピュテーションの低下、ブランド価値の毀損</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>法的規制・食の安全・安心に関するリスク</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>特定の取引先に対する依存</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>食品衛生法の改正</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>テクノロジーの導入</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>中長期的な経営戦略</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>目標とする経営指標　</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>定量比較!$Q$2:$Q$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(定量比較!$Q$4:$Q$9,定量比較!$Q$11:$Q$15,定量比較!$Q$17:$Q$21,定量比較!$Q$24:$Q$25,定量比較!$Q$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D54E-4815-BD3E-D3F227D89B5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="805070664"/>
+        <c:axId val="805071744"/>
+      </c:radarChart>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>定量比較!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>コメダ珈琲店</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>定量比較!$C$2:$C$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(定量比較!$C$4:$C$9,定量比較!$C$11:$C$15,定量比較!$C$17:$C$21,定量比較!$C$24:$C$25,定量比較!$C$27)</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>研究開発活動</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>サステナビリティに関する考え方及び取組</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>調達価格や為替、エネルギー価格の変動</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>生産拠点の配置・食材・商品等の供給体制</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>出店政策・店舗展開</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>店舗の賃借物件への差入保証金</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>海外における事業展開</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>経済状況の変化・景気動向と競合</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>人材の確保・育成</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>情報管理</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>大規模自然災害・新型コロナ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>減損会計の適用</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>レピュテーションの低下、ブランド価値の毀損</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>法的規制・食の安全・安心に関するリスク</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>特定の取引先に対する依存</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>食品衛生法の改正</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>テクノロジーの導入</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>中長期的な経営戦略</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>目標とする経営指標　</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>定量比較!$R$2:$R$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(定量比較!$R$4:$R$9,定量比較!$R$11:$R$15,定量比較!$R$17:$R$21,定量比較!$R$24:$R$25,定量比較!$R$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D54E-4815-BD3E-D3F227D89B5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>定量比較!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>サンマルクカフェ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>定量比較!$C$2:$C$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(定量比較!$C$4:$C$9,定量比較!$C$11:$C$15,定量比較!$C$17:$C$21,定量比較!$C$24:$C$25,定量比較!$C$27)</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>研究開発活動</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>サステナビリティに関する考え方及び取組</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>調達価格や為替、エネルギー価格の変動</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>生産拠点の配置・食材・商品等の供給体制</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>出店政策・店舗展開</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>店舗の賃借物件への差入保証金</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>海外における事業展開</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>経済状況の変化・景気動向と競合</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>人材の確保・育成</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>情報管理</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>大規模自然災害・新型コロナ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>減損会計の適用</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>レピュテーションの低下、ブランド価値の毀損</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>法的規制・食の安全・安心に関するリスク</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>特定の取引先に対する依存</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>食品衛生法の改正</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>テクノロジーの導入</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>中長期的な経営戦略</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>目標とする経営指標　</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>定量比較!$S$2:$S$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(定量比較!$S$4:$S$9,定量比較!$S$11:$S$15,定量比較!$S$17:$S$21,定量比較!$S$24:$S$25,定量比較!$S$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D54E-4815-BD3E-D3F227D89B5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>定量比較!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>タリーズコーヒー（伊藤園）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>定量比較!$C$2:$C$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(定量比較!$C$4:$C$9,定量比較!$C$11:$C$15,定量比較!$C$17:$C$21,定量比較!$C$24:$C$25,定量比較!$C$27)</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>研究開発活動</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>サステナビリティに関する考え方及び取組</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>調達価格や為替、エネルギー価格の変動</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>生産拠点の配置・食材・商品等の供給体制</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>出店政策・店舗展開</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>店舗の賃借物件への差入保証金</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>海外における事業展開</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>経済状況の変化・景気動向と競合</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>人材の確保・育成</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>情報管理</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>大規模自然災害・新型コロナ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>減損会計の適用</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>レピュテーションの低下、ブランド価値の毀損</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>法的規制・食の安全・安心に関するリスク</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>特定の取引先に対する依存</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>食品衛生法の改正</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>テクノロジーの導入</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>中長期的な経営戦略</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>目標とする経営指標　</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>定量比較!$T$2:$T$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(定量比較!$T$4:$T$9,定量比較!$T$11:$T$15,定量比較!$T$17:$T$21,定量比較!$T$24:$T$25,定量比較!$T$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D54E-4815-BD3E-D3F227D89B5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>定量比較!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ロイヤル</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>定量比較!$C$2:$C$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(定量比較!$C$4:$C$9,定量比較!$C$11:$C$15,定量比較!$C$17:$C$21,定量比較!$C$24:$C$25,定量比較!$C$27)</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>研究開発活動</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>サステナビリティに関する考え方及び取組</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>調達価格や為替、エネルギー価格の変動</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>生産拠点の配置・食材・商品等の供給体制</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>出店政策・店舗展開</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>店舗の賃借物件への差入保証金</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>海外における事業展開</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>経済状況の変化・景気動向と競合</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>人材の確保・育成</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>情報管理</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>大規模自然災害・新型コロナ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>減損会計の適用</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>レピュテーションの低下、ブランド価値の毀損</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>法的規制・食の安全・安心に関するリスク</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>特定の取引先に対する依存</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>食品衛生法の改正</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>テクノロジーの導入</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>中長期的な経営戦略</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>目標とする経営指標　</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>定量比較!$U$2:$U$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(定量比較!$U$4:$U$9,定量比較!$U$11:$U$15,定量比較!$U$17:$U$21,定量比較!$U$24:$U$25,定量比較!$U$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D54E-4815-BD3E-D3F227D89B5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>定量比較!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>スターバックス（米国）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>定量比較!$C$2:$C$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(定量比較!$C$4:$C$9,定量比較!$C$11:$C$15,定量比較!$C$17:$C$21,定量比較!$C$24:$C$25,定量比較!$C$27)</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>研究開発活動</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>サステナビリティに関する考え方及び取組</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>調達価格や為替、エネルギー価格の変動</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>生産拠点の配置・食材・商品等の供給体制</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>出店政策・店舗展開</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>店舗の賃借物件への差入保証金</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>海外における事業展開</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>経済状況の変化・景気動向と競合</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>人材の確保・育成</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>情報管理</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>大規模自然災害・新型コロナ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>減損会計の適用</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>レピュテーションの低下、ブランド価値の毀損</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>法的規制・食の安全・安心に関するリスク</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>特定の取引先に対する依存</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>食品衛生法の改正</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>テクノロジーの導入</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>中長期的な経営戦略</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>目標とする経営指標　</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>定量比較!$V$2:$V$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(定量比較!$V$4:$V$9,定量比較!$V$11:$V$15,定量比較!$V$17:$V$21,定量比較!$V$24:$V$25,定量比較!$V$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D54E-4815-BD3E-D3F227D89B5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="805070664"/>
+        <c:axId val="805071744"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="805070664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="805071744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="805071744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="805070664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>290514</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8714962-70B5-577A-A4BD-C326257AF8B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1826,676 +3907,735 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="45.125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" customWidth="1"/>
+    <col min="12" max="12" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>150</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="108" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>135</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="I5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>173</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="I6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>172</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>111</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>118</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="I11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>132</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="I12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>125</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>130</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="I14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="I15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>136</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>122</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>126</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>134</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="I20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>120</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>184</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>100</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>102</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>129</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="I24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>170</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>160</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>163</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>161</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>165</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="1" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2505,8 +4645,2201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Y27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <f>+LEN(テキスト比較!D2)</f>
+        <v>757</v>
+      </c>
+      <c r="E2">
+        <f>+LEN(テキスト比較!E2)</f>
+        <v>558</v>
+      </c>
+      <c r="F2">
+        <f>+LEN(テキスト比較!F2)</f>
+        <v>388</v>
+      </c>
+      <c r="G2">
+        <f>+LEN(テキスト比較!G2)</f>
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <f>+LEN(テキスト比較!H2)</f>
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <f>+LEN(テキスト比較!I2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>+LEN(テキスト比較!J2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>+LEN(テキスト比較!K2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>+COUNTIF(D2:K2,"&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2">
+        <f>+_xlfn.RANK.AVG(D2,$D2:$I2,1)</f>
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:V2" si="0">+_xlfn.RANK.AVG(E2,$D2:$I2,1)</f>
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3">
+        <f>+LEN(テキスト比較!D3)</f>
+        <v>76</v>
+      </c>
+      <c r="E3">
+        <f>+LEN(テキスト比較!E3)</f>
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <f>+LEN(テキスト比較!F3)</f>
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <f>+LEN(テキスト比較!G3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>+LEN(テキスト比較!H3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>+LEN(テキスト比較!I3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>+LEN(テキスト比較!J3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>+LEN(テキスト比較!K3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L27" si="1">+COUNTIF(D3:K3,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q27" si="2">+_xlfn.RANK.AVG(D3,$D3:$I3,1)</f>
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R27" si="3">+_xlfn.RANK.AVG(E3,$D3:$I3,1)</f>
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S27" si="4">+_xlfn.RANK.AVG(F3,$D3:$I3,1)</f>
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T27" si="5">+_xlfn.RANK.AVG(G3,$D3:$I3,1)</f>
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U27" si="6">+_xlfn.RANK.AVG(H3,$D3:$I3,1)</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V27" si="7">+_xlfn.RANK.AVG(I3,$D3:$I3,1)</f>
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <f>+LEN(テキスト比較!D4)</f>
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <f>+LEN(テキスト比較!E4)</f>
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <f>+LEN(テキスト比較!F4)</f>
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <f>+LEN(テキスト比較!G4)</f>
+        <v>1552</v>
+      </c>
+      <c r="H4">
+        <f>+LEN(テキスト比較!H4)</f>
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <f>+LEN(テキスト比較!I4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>+LEN(テキスト比較!J4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>+LEN(テキスト比較!K4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5">
+        <f>+LEN(テキスト比較!D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>+LEN(テキスト比較!E5)</f>
+        <v>214</v>
+      </c>
+      <c r="F5">
+        <f>+LEN(テキスト比較!F5)</f>
+        <v>3874</v>
+      </c>
+      <c r="G5">
+        <f>+LEN(テキスト比較!G5)</f>
+        <v>4564</v>
+      </c>
+      <c r="H5">
+        <f>+LEN(テキスト比較!H5)</f>
+        <v>411</v>
+      </c>
+      <c r="I5">
+        <f>+LEN(テキスト比較!I5)</f>
+        <v>494</v>
+      </c>
+      <c r="J5">
+        <f>+LEN(テキスト比較!J5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>+LEN(テキスト比較!K5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <f>+LEN(テキスト比較!D6)</f>
+        <v>353</v>
+      </c>
+      <c r="E6">
+        <f>+LEN(テキスト比較!E6)</f>
+        <v>378</v>
+      </c>
+      <c r="F6">
+        <f>+LEN(テキスト比較!F6)</f>
+        <v>318</v>
+      </c>
+      <c r="G6">
+        <f>+LEN(テキスト比較!G6)</f>
+        <v>394</v>
+      </c>
+      <c r="H6">
+        <f>+LEN(テキスト比較!H6)</f>
+        <v>191</v>
+      </c>
+      <c r="I6">
+        <f>+LEN(テキスト比較!I6)</f>
+        <v>1061</v>
+      </c>
+      <c r="J6">
+        <f>+LEN(テキスト比較!J6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>+LEN(テキスト比較!K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7">
+        <f>+LEN(テキスト比較!D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>+LEN(テキスト比較!E7)</f>
+        <v>426</v>
+      </c>
+      <c r="F7">
+        <f>+LEN(テキスト比較!F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>+LEN(テキスト比較!G7)</f>
+        <v>278</v>
+      </c>
+      <c r="H7">
+        <f>+LEN(テキスト比較!H7)</f>
+        <v>430</v>
+      </c>
+      <c r="I7">
+        <f>+LEN(テキスト比較!I7)</f>
+        <v>1933</v>
+      </c>
+      <c r="J7">
+        <f>+LEN(テキスト比較!J7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>+LEN(テキスト比較!K7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <f>+LEN(テキスト比較!D8)</f>
+        <v>305</v>
+      </c>
+      <c r="E8">
+        <f>+LEN(テキスト比較!E8)</f>
+        <v>381</v>
+      </c>
+      <c r="F8">
+        <f>+LEN(テキスト比較!F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>+LEN(テキスト比較!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>+LEN(テキスト比較!H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>+LEN(テキスト比較!I8)</f>
+        <v>2934</v>
+      </c>
+      <c r="J8">
+        <f>+LEN(テキスト比較!J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>+LEN(テキスト比較!K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>147</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <f>+LEN(テキスト比較!D9)</f>
+        <v>286</v>
+      </c>
+      <c r="E9">
+        <f>+LEN(テキスト比較!E9)</f>
+        <v>289</v>
+      </c>
+      <c r="F9">
+        <f>+LEN(テキスト比較!F9)</f>
+        <v>351</v>
+      </c>
+      <c r="G9">
+        <f>+LEN(テキスト比較!G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>+LEN(テキスト比較!H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>+LEN(テキスト比較!I9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>+LEN(テキスト比較!J9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>+LEN(テキスト比較!K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10">
+        <f>+LEN(テキスト比較!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>+LEN(テキスト比較!E10)</f>
+        <v>419</v>
+      </c>
+      <c r="F10">
+        <f>+LEN(テキスト比較!F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>+LEN(テキスト比較!G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>+LEN(テキスト比較!H10)</f>
+        <v>365</v>
+      </c>
+      <c r="I10">
+        <f>+LEN(テキスト比較!I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>+LEN(テキスト比較!J10)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>+LEN(テキスト比較!K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <f>+LEN(テキスト比較!D11)</f>
+        <v>311</v>
+      </c>
+      <c r="E11">
+        <f>+LEN(テキスト比較!E11)</f>
+        <v>357</v>
+      </c>
+      <c r="F11">
+        <f>+LEN(テキスト比較!F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>+LEN(テキスト比較!G11)</f>
+        <v>160</v>
+      </c>
+      <c r="H11">
+        <f>+LEN(テキスト比較!H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>+LEN(テキスト比較!I11)</f>
+        <v>1110</v>
+      </c>
+      <c r="J11">
+        <f>+LEN(テキスト比較!J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>+LEN(テキスト比較!K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>147</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12">
+        <f>+LEN(テキスト比較!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>+LEN(テキスト比較!E12)</f>
+        <v>517</v>
+      </c>
+      <c r="F12">
+        <f>+LEN(テキスト比較!F12)</f>
+        <v>325</v>
+      </c>
+      <c r="G12">
+        <f>+LEN(テキスト比較!G12)</f>
+        <v>618</v>
+      </c>
+      <c r="H12">
+        <f>+LEN(テキスト比較!H12)</f>
+        <v>345</v>
+      </c>
+      <c r="I12">
+        <f>+LEN(テキスト比較!I12)</f>
+        <v>1029</v>
+      </c>
+      <c r="J12">
+        <f>+LEN(テキスト比較!J12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>+LEN(テキスト比較!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>147</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13">
+        <f>+LEN(テキスト比較!D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>+LEN(テキスト比較!E13)</f>
+        <v>323</v>
+      </c>
+      <c r="F13">
+        <f>+LEN(テキスト比較!F13)</f>
+        <v>259</v>
+      </c>
+      <c r="G13">
+        <f>+LEN(テキスト比較!G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>+LEN(テキスト比較!H13)</f>
+        <v>552</v>
+      </c>
+      <c r="I13">
+        <f>+LEN(テキスト比較!I13)</f>
+        <v>1759</v>
+      </c>
+      <c r="J13">
+        <f>+LEN(テキスト比較!J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>+LEN(テキスト比較!K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <f>+LEN(テキスト比較!D14)</f>
+        <v>231</v>
+      </c>
+      <c r="E14">
+        <f>+LEN(テキスト比較!E14)</f>
+        <v>635</v>
+      </c>
+      <c r="F14">
+        <f>+LEN(テキスト比較!F14)</f>
+        <v>289</v>
+      </c>
+      <c r="G14">
+        <f>+LEN(テキスト比較!G14)</f>
+        <v>377</v>
+      </c>
+      <c r="H14">
+        <f>+LEN(テキスト比較!H14)</f>
+        <v>699</v>
+      </c>
+      <c r="I14">
+        <f>+LEN(テキスト比較!I14)</f>
+        <v>682</v>
+      </c>
+      <c r="J14">
+        <f>+LEN(テキスト比較!J14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>+LEN(テキスト比較!K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15">
+        <f>+LEN(テキスト比較!D15)</f>
+        <v>377</v>
+      </c>
+      <c r="E15">
+        <f>+LEN(テキスト比較!E15)</f>
+        <v>227</v>
+      </c>
+      <c r="F15">
+        <f>+LEN(テキスト比較!F15)</f>
+        <v>357</v>
+      </c>
+      <c r="G15">
+        <f>+LEN(テキスト比較!G15)</f>
+        <v>951</v>
+      </c>
+      <c r="H15">
+        <f>+LEN(テキスト比較!H15)</f>
+        <v>577</v>
+      </c>
+      <c r="I15">
+        <f>+LEN(テキスト比較!I15)</f>
+        <v>404</v>
+      </c>
+      <c r="J15">
+        <f>+LEN(テキスト比較!J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>+LEN(テキスト比較!K15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16">
+        <f>+LEN(テキスト比較!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>+LEN(テキスト比較!E16)</f>
+        <v>340</v>
+      </c>
+      <c r="F16">
+        <f>+LEN(テキスト比較!F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>+LEN(テキスト比較!G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>+LEN(テキスト比較!H16)</f>
+        <v>208</v>
+      </c>
+      <c r="I16">
+        <f>+LEN(テキスト比較!I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>+LEN(テキスト比較!J16)</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>+LEN(テキスト比較!K16)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <f>+LEN(テキスト比較!D17)</f>
+        <v>173</v>
+      </c>
+      <c r="E17">
+        <f>+LEN(テキスト比較!E17)</f>
+        <v>329</v>
+      </c>
+      <c r="F17">
+        <f>+LEN(テキスト比較!F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>+LEN(テキスト比較!G17)</f>
+        <v>161</v>
+      </c>
+      <c r="H17">
+        <f>+LEN(テキスト比較!H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>+LEN(テキスト比較!I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>+LEN(テキスト比較!J17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>+LEN(テキスト比較!K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <f>+LEN(テキスト比較!D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>+LEN(テキスト比較!E18)</f>
+        <v>588</v>
+      </c>
+      <c r="F18">
+        <f>+LEN(テキスト比較!F18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>+LEN(テキスト比較!G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>+LEN(テキスト比較!H18)</f>
+        <v>270</v>
+      </c>
+      <c r="I18">
+        <f>+LEN(テキスト比較!I18)</f>
+        <v>1723</v>
+      </c>
+      <c r="J18">
+        <f>+LEN(テキスト比較!J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>+LEN(テキスト比較!K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19">
+        <f>+LEN(テキスト比較!D19)</f>
+        <v>193</v>
+      </c>
+      <c r="E19">
+        <f>+LEN(テキスト比較!E19)</f>
+        <v>1072</v>
+      </c>
+      <c r="F19">
+        <f>+LEN(テキスト比較!F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>+LEN(テキスト比較!G19)</f>
+        <v>987</v>
+      </c>
+      <c r="H19">
+        <f>+LEN(テキスト比較!H19)</f>
+        <v>947</v>
+      </c>
+      <c r="I19">
+        <f>+LEN(テキスト比較!I19)</f>
+        <v>992</v>
+      </c>
+      <c r="J19">
+        <f>+LEN(テキスト比較!J19)</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>+LEN(テキスト比較!K19)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20">
+        <f>+LEN(テキスト比較!D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>+LEN(テキスト比較!E20)</f>
+        <v>776</v>
+      </c>
+      <c r="F20">
+        <f>+LEN(テキスト比較!F20)</f>
+        <v>461</v>
+      </c>
+      <c r="G20">
+        <f>+LEN(テキスト比較!G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>+LEN(テキスト比較!H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>+LEN(テキスト比較!I20)</f>
+        <v>1394</v>
+      </c>
+      <c r="J20">
+        <f>+LEN(テキスト比較!J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>+LEN(テキスト比較!K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>147</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21">
+        <f>+LEN(テキスト比較!D21)</f>
+        <v>193</v>
+      </c>
+      <c r="E21">
+        <f>+LEN(テキスト比較!E21)</f>
+        <v>252</v>
+      </c>
+      <c r="F21">
+        <f>+LEN(テキスト比較!F21)</f>
+        <v>240</v>
+      </c>
+      <c r="G21">
+        <f>+LEN(テキスト比較!G21)</f>
+        <v>687</v>
+      </c>
+      <c r="H21">
+        <f>+LEN(テキスト比較!H21)</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>+LEN(テキスト比較!I21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>+LEN(テキスト比較!J21)</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f>+LEN(テキスト比較!K21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>147</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22">
+        <f>+LEN(テキスト比較!D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>+LEN(テキスト比較!E22)</f>
+        <v>247</v>
+      </c>
+      <c r="F22">
+        <f>+LEN(テキスト比較!F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>+LEN(テキスト比較!G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>+LEN(テキスト比較!H22)</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>+LEN(テキスト比較!I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>+LEN(テキスト比較!J22)</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f>+LEN(テキスト比較!K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23">
+        <f>+LEN(テキスト比較!D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>+LEN(テキスト比較!E23)</f>
+        <v>442</v>
+      </c>
+      <c r="F23">
+        <f>+LEN(テキスト比較!F23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>+LEN(テキスト比較!G23)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>+LEN(テキスト比較!H23)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>+LEN(テキスト比較!I23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>+LEN(テキスト比較!J23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>+LEN(テキスト比較!K23)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24">
+        <f>+LEN(テキスト比較!D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>+LEN(テキスト比較!E24)</f>
+        <v>261</v>
+      </c>
+      <c r="F24">
+        <f>+LEN(テキスト比較!F24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>+LEN(テキスト比較!G24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>+LEN(テキスト比較!H24)</f>
+        <v>178</v>
+      </c>
+      <c r="I24">
+        <f>+LEN(テキスト比較!I24)</f>
+        <v>1138</v>
+      </c>
+      <c r="J24">
+        <f>+LEN(テキスト比較!J24)</f>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>+LEN(テキスト比較!K24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>147</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25">
+        <f>+LEN(テキスト比較!D25)</f>
+        <v>242</v>
+      </c>
+      <c r="E25">
+        <f>+LEN(テキスト比較!E25)</f>
+        <v>997</v>
+      </c>
+      <c r="F25">
+        <f>+LEN(テキスト比較!F25)</f>
+        <v>833</v>
+      </c>
+      <c r="G25">
+        <f>+LEN(テキスト比較!G25)</f>
+        <v>257</v>
+      </c>
+      <c r="H25">
+        <f>+LEN(テキスト比較!H25)</f>
+        <v>428</v>
+      </c>
+      <c r="I25">
+        <f>+LEN(テキスト比較!I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>+LEN(テキスト比較!J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>+LEN(テキスト比較!K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>147</v>
+      </c>
+      <c r="O25" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26">
+        <f>+LEN(テキスト比較!D26)</f>
+        <v>240</v>
+      </c>
+      <c r="E26">
+        <f>+LEN(テキスト比較!E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>+LEN(テキスト比較!F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>+LEN(テキスト比較!G26)</f>
+        <v>5202</v>
+      </c>
+      <c r="H26">
+        <f>+LEN(テキスト比較!H26)</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>+LEN(テキスト比較!I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>+LEN(テキスト比較!J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>+LEN(テキスト比較!K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>147</v>
+      </c>
+      <c r="O26" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27">
+        <f>+LEN(テキスト比較!D27)</f>
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <f>+LEN(テキスト比較!E27)</f>
+        <v>503</v>
+      </c>
+      <c r="F27">
+        <f>+LEN(テキスト比較!F27)</f>
+        <v>59</v>
+      </c>
+      <c r="G27">
+        <f>+LEN(テキスト比較!G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>+LEN(テキスト比較!H27)</f>
+        <v>165</v>
+      </c>
+      <c r="I27">
+        <f>+LEN(テキスト比較!I27)</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>+LEN(テキスト比較!J27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>+LEN(テキスト比較!K27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>147</v>
+      </c>
+      <c r="O27" t="s">
+        <v>152</v>
+      </c>
+      <c r="P27" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="Y27" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:L20"/>
@@ -2514,423 +6847,229 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>